--- a/P0054/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0054/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0054\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33A5423-FC84-4EF6-A85B-A3A8CF457898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F33A5423-FC84-4EF6-A85B-A3A8CF457898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7611ED1A-348D-4420-B9A4-AB0E0A94BE8B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -90,146 +90,13 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
-  </si>
-  <si>
-    <t>P0054</t>
-  </si>
-  <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>Land Classification</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/02_PRODUCTOS/GIS_Data/Land Classification</t>
-  </si>
-  <si>
-    <t>IDEAM</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>La carpeta Land Classification contiene un archivo GeoTIFF del área de la Mojana. Este archivo contiene una clasificación de coberturas del suelo, proporcionando datos detallados sobre los diferentes tipos de cobertura en la región de la Mojana. La clasificación puede incluir áreas de bosques, campos cultivados, zonas urbanas, y otros tipos de cobertura terrestre.</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>En la carpeta Land Classification, se encuentra el archivo raster LandCover, desarrollado en formato GeoTIFF, el cual proporciona una clasificación detallada de las coberturas del suelo en la región de la Mojana. Este archivo abarca los 11 municipios centrales de la zona y es esencial para la gestión ambiental y la planificación territorial. Además del archivo GeoTIFF, la carpeta incluye archivos en formato HDF y XML, que pueden ofrecer información complementaria sobre los datos de cobertura del suelo. El dataset geoespacial LandCover permite un análisis preciso de diferentes tipos de uso del suelo, incluyendo zonas forestales, agrícolas y urbanas.</t>
-  </si>
-  <si>
-    <t>El archivo abre sin problemas</t>
-  </si>
-  <si>
-    <t>Cobertura del suelo, LandCover, GeoTIFF, Mojana, gestión ambiental, planificación territorial.</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>Raster</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/02_PRODUCTOS/GIS_Data/Raster</t>
-  </si>
-  <si>
-    <t>La carpeta Raster incluye 73 archivos en formato GeoTIFF organizados en cinco subcarpetas y dos capas .lyr para visualización en SIG. Las subcarpetas abarcan: Mask (delimitación del área de Mojana), Plan_1997 y Plan_1997_50perc (datos de profundidad de 1997), PlanV0 (base de datos de profundidad), y Q1997_vertedero1 (datos de un vertedero en 1997).</t>
-  </si>
-  <si>
-    <t>La carpeta Raster alberga una colección de 73 archivos, organizados en 5 subcarpetas cada una con archivos en formato GeoTIFF que corresponden a diferentes conjuntos de datos rasterizados. Además, incluye dos capas en formato. lyr, que facilitan la visualización y simbología de los datos en software SIG. La información se clasifica en seis categorías principales:  1)Mask: Esta subcarpeta contiene archivos raster que se utilizan para enmascarar o delimitar el área núcleo de la Mojana  2) Plan_1997: Contiene una serie de imágenes catalogadas como "depth" que reflejan datos de profundidad en fechas que varían de mayo a octubre de 1997. 3) Plan_1997_50perc: Similar a la carpeta anterior, esta subcarpeta alberga imágenes que representan el 50% de las condiciones en profundidad bajo las mismas fechas de mayo a octubre de 1997. 4) PlanV0:  Contiene archivos que pueden referirse a una versión inicial o base de datos de profundidad. 5) Q1997_vertedero1:  Esta carpeta incluye datos raster relacionados con un vertedero en 1997. 6) Capas .lyr: Las dos capas en formato .lyr facilitan la simbología y presentación visual de los datos, permitiendo a los usuarios aplicar configuraciones específicas de visualización en software SIG para una mejor interpretación de los datos geoespaciales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se requieren más detalles para proporcionar una descripción más específica sobre su contenido y uso de los raster presentes en esta carpeta, ya que carece de un archivo descriptivo o informe._x000D_
-</t>
-  </si>
-  <si>
-    <t>GeoTIFF, profundidad, visualización SIG, delimitación geoespacial, Mojana, datos raster, Plan_1997, vertedero, gestión ambiental.</t>
-  </si>
-  <si>
-    <t>PR0003</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/02_PRODUCTOS/GIS_Data/Salidas</t>
-  </si>
-  <si>
-    <t>La carpeta Salidas, contiene las composiciones de los rasteres.  En la carpeta se encuentran los archivos en extensión .JPG y .pdf</t>
-  </si>
-  <si>
-    <t>La carpeta Salidas contiene datos sobre el vertedero de 1997, organizados en una única subcarpeta compuesta por 22 archivos. Estos archivos presentan la composición raster de los vertederos, abarcando el periodo del 31 de mayo al 7 de octubre de 1997, e incluyen un archivo adicional que representa el vertedero máximo. La mancha de inundación mostrada en estas composiciones refleja el impacto del boquete Caregato en la subregión de la Mojana. Este conjunto de datos es crucial para el análisis de eventos hídricos históricos y la evaluación del efecto de las inundaciones en la región, facilitando estudios de gestión de recursos y el modelado ambiental.</t>
-  </si>
-  <si>
-    <t>Inundación, Caregato, Mojana, vertedero, 1997, raster, análisis hidrológico, gestión de recursos, boquete.</t>
-  </si>
-  <si>
-    <t>PR0004</t>
-  </si>
-  <si>
-    <t>shp</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/02_PRODUCTOS/GIS_Data/shp</t>
-  </si>
-  <si>
-    <t>La carpeta Shp contiene información de la línea base inundación 2001 para todo el país a escala 1:100.000. De igual manera, se presentan archivos tipo shape file para divisiones político-administrativos, cuerpos de aguas, drenajes y vías.</t>
-  </si>
-  <si>
-    <t>La carpeta "shp" está organizada en subcarpetas que contienen datos geoespaciales clave para el análisis de la región de la Mojana. La primera subcarpeta incluye información político-administrativa de los departamentos, además de datos sobre ciénagas y doble drenaje, así como varias máscaras. Esta información proporciona una base para el entendimiento de las divisiones administrativas y las características hidrológicas de la región, lo cual es esencial para la planificación y gestión territorial. La segunda subcarpeta presenta una línea base de inundación de 2001, con detalles de cartografía a escala 1:100,000. Estos datos son fundamentales para el análisis histórico de eventos de inundación, lo que ayuda en la evaluación de riesgos y en el desarrollo de estrategias de mitigación y adaptación.</t>
-  </si>
-  <si>
-    <t>Información político-administrativa, ciénagas, drenaje, línea base de inundación, 2001, Mojana, planificación territorial, gestión de riesgos.</t>
-  </si>
-  <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>Terrain</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/02_PRODUCTOS/GIS_Data/Terrain</t>
-  </si>
-  <si>
-    <t>La carpeta Terrain contiene tres archivos de un modelo de terreno a 5 m de la región de la Mojana sin rompederos.</t>
-  </si>
-  <si>
-    <t>La carpeta Terrain contiene tres archivo productos de un modelo de terreno, dentro de esta hay tres archivos con extensión .hdf, .vrt y un GeoTIFF</t>
-  </si>
-  <si>
-    <t>MDT, La Mojana, Rompederos, 5m</t>
-  </si>
-  <si>
-    <t>PR0006</t>
-  </si>
-  <si>
-    <t>XLSX</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/02_PRODUCTOS/GIS_Data/XLSX</t>
-  </si>
-  <si>
-    <t>La carpeta XLSX  contiene la información en archivo excel.</t>
-  </si>
-  <si>
-    <t>La carpeta XLSX contenía información de los análisis en Excel con gráficas y una presentación en PowerPoint del IDEAM.</t>
-  </si>
-  <si>
-    <t>Caraegato, La Mojana, rompederos, regla empírica, análisis, datos históricos</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,41 +176,76 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -361,63 +263,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -661,15 +506,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -677,10 +513,25 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,26 +547,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R2" insertRow="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="0" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -984,420 +835,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3">
-        <v>9999</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3">
-        <v>9999</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9999</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3">
-        <v>9999</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9999</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9999</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>60</v>
-      </c>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1409,6 +944,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1552,37 +1096,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>